--- a/biology/Médecine/Hôpital_de_Rouïba/Hôpital_de_Rouïba.xlsx
+++ b/biology/Médecine/Hôpital_de_Rouïba/Hôpital_de_Rouïba.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_Rou%C3%AFba</t>
+          <t>Hôpital_de_Rouïba</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'hôpital de Rouïba ou établissement public hospitalier de Rouïba fut fondé en 1962 dans la commune de Rouïba.
-Cet hôpital est l'un des hôpitaux en Algérie qui relèvent du ministère de la Santé et de la Réforme hospitalière[1].
+Cet hôpital est l'un des hôpitaux en Algérie qui relèvent du ministère de la Santé et de la Réforme hospitalière.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_Rou%C3%AFba</t>
+          <t>Hôpital_de_Rouïba</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,6 +526,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -521,7 +535,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_Rou%C3%AFba</t>
+          <t>Hôpital_de_Rouïba</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -539,10 +553,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dès la Deuxième Guerre mondiale, le conseil municipal de Rouïba proposa l'édification d'un hôpital civil sur la commune mais les autorités ont refusé en justifiant que la commune est à une vingtaine de kilomètres du centre d’Alger où les malades de la région sont pris en charge. Ce n'est qu'en 1957 que l'autorisation fut accordée.
-La première pierre fut posée le 17 mars 1958 et les travaux furent achevés début 1962 mais l’hôpital ne fut jamais ouvert au public. Au printemps 1962, il fut réquisitionné et servit de centre de détention pour les blessés et malades de l'OAS[2].
+La première pierre fut posée le 17 mars 1958 et les travaux furent achevés début 1962 mais l’hôpital ne fut jamais ouvert au public. Au printemps 1962, il fut réquisitionné et servit de centre de détention pour les blessés et malades de l'OAS.
 </t>
         </is>
       </c>
@@ -553,7 +569,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_Rou%C3%AFba</t>
+          <t>Hôpital_de_Rouïba</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -571,7 +587,9 @@
           <t>Principales activités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Service des urgences
 Service de chirurgie
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_Rou%C3%AFba</t>
+          <t>Hôpital_de_Rouïba</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,12 +626,14 @@
           <t>Professeurs de renom</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Pr. Kamel Daoud , premier chef de service de chirurgie générale
 Pr. Mohamed Boulahbal , premier chef de service de pneumo-phtisiologie
-Pr Merzak Gharnaout, chef de service de pneumologie, EPH de Rouïba[3].
-Pr Hacene Mahfouf, chef du service oncologie, EPH de Rouïba[4].
+Pr Merzak Gharnaout, chef de service de pneumologie, EPH de Rouïba.
+Pr Hacene Mahfouf, chef du service oncologie, EPH de Rouïba.
 Pr Hamladji Rose Marie chef de service de medecine interne et d'hématologie (Années 1980/90)
 Pr Benfenatki Nacera chef de service de medecine interne (1995-2020)
 Pr Benamer Mustapha chef de service de medecine interne(2020 à ce jour)</t>
